--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail1 Features.xlsx
@@ -4318,7 +4318,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53662517288328</v>
+        <v>1.524885385766105</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.708807054609134</v>
@@ -4407,7 +4407,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561934654483722</v>
+        <v>1.545880866825242</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.695108231365135</v>
@@ -4496,7 +4496,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.5876747429636</v>
+        <v>1.563368131755325</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.651334886626313</v>
@@ -4585,7 +4585,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.59618180197783</v>
+        <v>1.566622684778718</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.519175246112955</v>
@@ -4674,7 +4674,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.610545013260304</v>
+        <v>1.57688181338387</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.735021383371163</v>
@@ -4763,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.609918974969262</v>
+        <v>1.580832086615193</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.605520429979218</v>
@@ -4852,7 +4852,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.652873546308096</v>
+        <v>1.613544283835407</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.702464424229511</v>
@@ -4941,7 +4941,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.64834034825433</v>
+        <v>1.607979857417664</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.992939497774168</v>
@@ -5030,7 +5030,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.641480412600463</v>
+        <v>1.603099292993461</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.869889452203133</v>
@@ -5119,7 +5119,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641092159745921</v>
+        <v>1.601082573791433</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.985582732762166</v>
@@ -5208,7 +5208,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.639809253382527</v>
+        <v>1.59968716770245</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.710266424037028</v>
@@ -5297,7 +5297,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551598125836241</v>
+        <v>1.527064642225177</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.037255249141147</v>
@@ -5386,7 +5386,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.479182549553611</v>
+        <v>1.471743440313871</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.050862628081358</v>
@@ -5475,7 +5475,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.491164476787203</v>
+        <v>1.481840860896028</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.039503675150502</v>
@@ -5564,7 +5564,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.511590119364657</v>
+        <v>1.500181525055984</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.085793834823615</v>
@@ -5653,7 +5653,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.506978708729261</v>
+        <v>1.499797281956545</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.088537663718903</v>
@@ -5742,7 +5742,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503689163337536</v>
+        <v>1.497920111154146</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.05305663622862</v>
@@ -5831,7 +5831,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.498238488849909</v>
+        <v>1.493670378105519</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.067777647868142</v>
@@ -5920,7 +5920,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.495177688238534</v>
+        <v>1.48998396153573</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.046119371785067</v>
@@ -6009,7 +6009,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.480788542133804</v>
+        <v>1.479033434532133</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.029501783356552</v>
@@ -6098,7 +6098,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.477575669947456</v>
+        <v>1.473693422171832</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.046325320968427</v>
@@ -6187,7 +6187,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.483387052484788</v>
+        <v>1.475463674502307</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.027153985671906</v>
@@ -6276,7 +6276,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.482211830816774</v>
+        <v>1.481458236795456</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.043247357003871</v>
@@ -6365,7 +6365,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.484531632265211</v>
+        <v>1.485121137709274</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.077936141309569</v>
@@ -6454,7 +6454,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.477751334525847</v>
+        <v>1.479325526863188</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.050658558495138</v>
@@ -6543,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443832658660058</v>
+        <v>1.450544999449986</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.096076663598771</v>
@@ -6632,7 +6632,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.527006541120117</v>
+        <v>1.516663453025617</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.772284544320563</v>
@@ -6721,7 +6721,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.591776419026527</v>
+        <v>1.576766829725061</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.374308271424755</v>
@@ -6810,7 +6810,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.597082922895282</v>
+        <v>1.579860789629043</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.244133699391247</v>
@@ -6899,7 +6899,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610676647325096</v>
+        <v>1.591348847533014</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.39120331048633</v>
@@ -6988,7 +6988,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.617924029116721</v>
+        <v>1.596113559977502</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.378184850203435</v>
@@ -7077,7 +7077,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.578331254789574</v>
+        <v>1.564376581962932</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.31640485294931</v>
@@ -7166,7 +7166,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567003727401351</v>
+        <v>1.556225889057002</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.388742850669997</v>
@@ -7255,7 +7255,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.503559077357044</v>
+        <v>1.503564023692651</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.167935252905076</v>
@@ -7344,7 +7344,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.517125916560874</v>
+        <v>1.51344952186106</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.275040403925829</v>
@@ -7433,7 +7433,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.52539809520613</v>
+        <v>1.522079002710398</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.18692879169263</v>
@@ -7522,7 +7522,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52589956802403</v>
+        <v>1.524714382534772</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.199483058733068</v>
@@ -7611,7 +7611,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535024596980784</v>
+        <v>1.527171204140758</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.314281566236038</v>
@@ -7700,7 +7700,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.532685020066534</v>
+        <v>1.522199086824739</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.243400398559758</v>
@@ -7789,7 +7789,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544361578672266</v>
+        <v>1.532767402808016</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.306357086180068</v>
@@ -7878,7 +7878,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590852492740619</v>
+        <v>1.569406579550629</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.246338914678228</v>
@@ -7967,7 +7967,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.58673711057296</v>
+        <v>1.565009094348576</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.21050393753355</v>
@@ -8253,7 +8253,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.623918233939216</v>
+        <v>1.586163494861753</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.032784948314658</v>
@@ -8342,7 +8342,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.604814707364196</v>
+        <v>1.57024000101307</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.07308116124576</v>
@@ -8431,7 +8431,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596617887248661</v>
+        <v>1.55857200196481</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.926235961313835</v>
@@ -8520,7 +8520,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.608095727826886</v>
+        <v>1.569796243294046</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.918559179673744</v>
@@ -8609,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.644027550838566</v>
+        <v>1.596146352110331</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.322172971775408</v>
@@ -8698,7 +8698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.646689181857204</v>
+        <v>1.596701525302843</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.814822232966245</v>
@@ -8787,7 +8787,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.645214626498843</v>
+        <v>1.591039868768202</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.398139124400334</v>
@@ -8876,7 +8876,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.632347930411914</v>
+        <v>1.579657703141919</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.212296258664919</v>
@@ -8965,7 +8965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.628951666105476</v>
+        <v>1.574021512270309</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.326248365422683</v>
@@ -9054,7 +9054,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612688767203442</v>
+        <v>1.557186231133169</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.347130441195111</v>
@@ -9143,7 +9143,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.60873519758683</v>
+        <v>1.547252169888753</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.212352247840247</v>
@@ -9232,7 +9232,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598186928424757</v>
+        <v>1.541187979129665</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.331566241309833</v>
@@ -9321,7 +9321,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.594909351380828</v>
+        <v>1.536968901064607</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.340360788855663</v>
@@ -9410,7 +9410,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601731286464597</v>
+        <v>1.546432756530639</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.141548600997165</v>
@@ -9499,7 +9499,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.592473059606632</v>
+        <v>1.535207257261239</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.525215107405406</v>
@@ -9588,7 +9588,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57396859012603</v>
+        <v>1.520014228975566</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.24108179604717</v>
@@ -9677,7 +9677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585451778681531</v>
+        <v>1.528851416109309</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.27406184143959</v>
@@ -9766,7 +9766,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.571463229080452</v>
+        <v>1.51869774893589</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.407808029183302</v>
@@ -9855,7 +9855,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574146810597117</v>
+        <v>1.518876640625066</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.037673487794875</v>
@@ -9944,7 +9944,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.579846320103327</v>
+        <v>1.527406225230167</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.172384566329238</v>
@@ -10033,7 +10033,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.588778116350584</v>
+        <v>1.538016443816808</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.017537554128035</v>
@@ -10122,7 +10122,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.590079835250972</v>
+        <v>1.540225697580319</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.242853222829499</v>
@@ -10211,7 +10211,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591566820095216</v>
+        <v>1.545908427151991</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.037139420276037</v>
@@ -10300,7 +10300,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594706151262751</v>
+        <v>1.545246283069727</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.971564348652308</v>
@@ -10389,7 +10389,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620726420805121</v>
+        <v>1.564003092457285</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.229191775063476</v>
@@ -10478,7 +10478,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.627162713211211</v>
+        <v>1.572364976657681</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.229842569614478</v>
@@ -10567,7 +10567,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.636374104912804</v>
+        <v>1.57808641430733</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.859475444593856</v>
@@ -10656,7 +10656,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.637569876854825</v>
+        <v>1.58694393580802</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.285338882966234</v>
@@ -10745,7 +10745,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.639295484725233</v>
+        <v>1.588211545008858</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.876573931725754</v>
@@ -10834,7 +10834,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649323094645011</v>
+        <v>1.599988362354562</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.330064879472328</v>
@@ -10923,7 +10923,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.672101808144634</v>
+        <v>1.619525441576861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.345880191796472</v>
@@ -11012,7 +11012,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.649899518973428</v>
+        <v>1.603693751416072</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.06660211074549</v>
@@ -11101,7 +11101,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.659286008769468</v>
+        <v>1.612698559920282</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.902140186612834</v>
@@ -11190,7 +11190,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.654926849788338</v>
+        <v>1.610426164847371</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.083294198359829</v>
@@ -11279,7 +11279,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.652619037588327</v>
+        <v>1.605403104177586</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.109645162870807</v>
@@ -11368,7 +11368,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.645427415132941</v>
+        <v>1.604621966840805</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.950322808951785</v>
@@ -11457,7 +11457,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.648509866121449</v>
+        <v>1.602936113884293</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.148285040160575</v>
@@ -11546,7 +11546,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.656136398720606</v>
+        <v>1.607667615018385</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.663633602691942</v>
@@ -11635,7 +11635,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.655097269137006</v>
+        <v>1.618962506208199</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.025546690307314</v>
@@ -11724,7 +11724,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.656779320594434</v>
+        <v>1.622150425445368</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.970283252547046</v>
@@ -11813,7 +11813,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65257615042345</v>
+        <v>1.621072637417467</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.142743313822909</v>
@@ -11902,7 +11902,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.648196620659175</v>
+        <v>1.616130588708268</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.806065269049723</v>
@@ -12188,7 +12188,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.600904207063115</v>
+        <v>1.518361386541468</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.539563555711647</v>
@@ -12277,7 +12277,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.594626711501669</v>
+        <v>1.510173555423538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.585606990890918</v>
@@ -12366,7 +12366,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584405530001472</v>
+        <v>1.496687933348652</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.383185816353855</v>
@@ -12455,7 +12455,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.591315711269006</v>
+        <v>1.501598047429005</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.464524569872796</v>
@@ -12544,7 +12544,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.596201597900569</v>
+        <v>1.50452866075552</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.438586171576519</v>
@@ -12633,7 +12633,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.601276014841839</v>
+        <v>1.504678454928688</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.603599324682363</v>
@@ -12722,7 +12722,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.595836245232334</v>
+        <v>1.499983969998088</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.442469717656734</v>
@@ -12811,7 +12811,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.634119889704376</v>
+        <v>1.542800584445601</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.742340909921393</v>
@@ -12900,7 +12900,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.627195009532246</v>
+        <v>1.532458678285177</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.744056681464982</v>
@@ -12989,7 +12989,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.631208250085469</v>
+        <v>1.531310969063035</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.576738303722412</v>
@@ -13078,7 +13078,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.608761742806201</v>
+        <v>1.515280749666203</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.612184415474701</v>
@@ -13167,7 +13167,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60642231317684</v>
+        <v>1.516930412503068</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.207617346865963</v>
@@ -13256,7 +13256,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.585327875583759</v>
+        <v>1.498452157352943</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.096912389775305</v>
@@ -13345,7 +13345,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.589201358232353</v>
+        <v>1.49909823743216</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.988088714206339</v>
@@ -13434,7 +13434,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.582554552735038</v>
+        <v>1.490309460168451</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.249795521745555</v>
@@ -13523,7 +13523,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.580929310223904</v>
+        <v>1.488250889553125</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.363375240946896</v>
@@ -13612,7 +13612,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586356684215315</v>
+        <v>1.501488205831018</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.228265434084628</v>
@@ -13701,7 +13701,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.596978758657775</v>
+        <v>1.511856388831478</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.105705044308919</v>
@@ -13790,7 +13790,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596905928262745</v>
+        <v>1.508808850511395</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.490686335478002</v>
@@ -13879,7 +13879,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589115130245557</v>
+        <v>1.505889663361617</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.55101907048893</v>
@@ -13968,7 +13968,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590214803154362</v>
+        <v>1.507873896342696</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.536141950016052</v>
@@ -14057,7 +14057,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.578654724790116</v>
+        <v>1.506168798395013</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.575980255869375</v>
@@ -14146,7 +14146,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560500066863183</v>
+        <v>1.489634877416288</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.62553206358701</v>
@@ -14235,7 +14235,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561477294105471</v>
+        <v>1.492279210433787</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.712963164421694</v>
@@ -14324,7 +14324,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561049412355387</v>
+        <v>1.489938774247668</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.713802797232066</v>
@@ -14413,7 +14413,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.572350124332114</v>
+        <v>1.498851982377428</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.637976907162551</v>
@@ -14502,7 +14502,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559454938506159</v>
+        <v>1.490115052978977</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.284154984043628</v>
@@ -14591,7 +14591,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570242985537824</v>
+        <v>1.495206035545605</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.480019698692006</v>
@@ -14680,7 +14680,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.568079121063263</v>
+        <v>1.498270659377991</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.587615840652723</v>
@@ -14769,7 +14769,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.58042902962119</v>
+        <v>1.508902713426467</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.718659127788972</v>
@@ -14858,7 +14858,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577445042996905</v>
+        <v>1.506899141954897</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.805739130691359</v>
@@ -14947,7 +14947,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552227235478719</v>
+        <v>1.481685239859082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.63464608231238</v>
@@ -15036,7 +15036,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.550360881577845</v>
+        <v>1.474820186488509</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.679008926255594</v>
@@ -15125,7 +15125,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.544910994889631</v>
+        <v>1.471660429801813</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.552050075180372</v>
@@ -15214,7 +15214,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.550998784227578</v>
+        <v>1.46612877519904</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.491090084472079</v>
@@ -15303,7 +15303,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552223374945672</v>
+        <v>1.471120375646928</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.640527309499374</v>
@@ -15392,7 +15392,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57097973813489</v>
+        <v>1.483456277015621</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.693696394149669</v>
@@ -15481,7 +15481,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.582091508404639</v>
+        <v>1.493451294231747</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.763261429334248</v>
@@ -15570,7 +15570,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584800872464368</v>
+        <v>1.494978868408644</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.693117713559448</v>
@@ -15659,7 +15659,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583488778822692</v>
+        <v>1.492799246014409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.909652607456287</v>
@@ -15748,7 +15748,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.602771354861428</v>
+        <v>1.505465634778421</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.401415086546817</v>
@@ -15837,7 +15837,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606851482117221</v>
+        <v>1.507260316216875</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.913968944290185</v>
@@ -16123,7 +16123,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.438446654613101</v>
+        <v>1.404621873782504</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.35197548416314</v>
@@ -16212,7 +16212,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.432013543914411</v>
+        <v>1.399384263716777</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.328986441069449</v>
@@ -16301,7 +16301,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.422320070724328</v>
+        <v>1.385615963714709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.314851826463224</v>
@@ -16390,7 +16390,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.407719717521265</v>
+        <v>1.368024724298089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.319210466149058</v>
@@ -16479,7 +16479,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.394084154899128</v>
+        <v>1.364424708977326</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.307128524903774</v>
@@ -16568,7 +16568,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.416898367170631</v>
+        <v>1.383134534856274</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.094505455943055</v>
@@ -16657,7 +16657,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.428734704086396</v>
+        <v>1.39696891910055</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.517457380159982</v>
@@ -16746,7 +16746,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.429759656720908</v>
+        <v>1.403493552456346</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.398722678879668</v>
@@ -16835,7 +16835,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.441776443719168</v>
+        <v>1.409511075845905</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.13380438269247</v>
@@ -16924,7 +16924,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.457502314180554</v>
+        <v>1.40963711915765</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.399539641135521</v>
@@ -17013,7 +17013,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.427809350307826</v>
+        <v>1.395108281403921</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.419709468693179</v>
@@ -17102,7 +17102,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.440691091407998</v>
+        <v>1.400338079393501</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.435551661730405</v>
@@ -17191,7 +17191,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.431238157574516</v>
+        <v>1.392952326298168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.385400868228311</v>
@@ -17280,7 +17280,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.402594751524133</v>
+        <v>1.371616621905324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.446269092003474</v>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.419616036694197</v>
+        <v>1.386892801091799</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.787693781942506</v>
@@ -17458,7 +17458,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.356635402256975</v>
+        <v>1.325467737562924</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.909578776750741</v>
@@ -17547,7 +17547,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.358444141046363</v>
+        <v>1.32592402785799</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.911972150975235</v>
@@ -17636,7 +17636,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.369546296192153</v>
+        <v>1.339438957547216</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.941843332137618</v>
@@ -17725,7 +17725,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.395610733028308</v>
+        <v>1.356893826785109</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.93935488007984</v>
@@ -17814,7 +17814,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.39812243198588</v>
+        <v>1.362609405940374</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.90911319123978</v>
@@ -17903,7 +17903,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.391601657239005</v>
+        <v>1.355209136864824</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.891760379023844</v>
@@ -17992,7 +17992,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.385657834756937</v>
+        <v>1.345563120098822</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.886320655997551</v>
@@ -18081,7 +18081,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.370139959840325</v>
+        <v>1.330770187669909</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.890579332479254</v>
@@ -18170,7 +18170,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.371544141209027</v>
+        <v>1.332784350487992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.874714853957431</v>
@@ -18259,7 +18259,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.393565358072105</v>
+        <v>1.349230747508282</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.773780290550682</v>
@@ -18348,7 +18348,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.364616924463607</v>
+        <v>1.325896198624966</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.875152449485401</v>
@@ -18437,7 +18437,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.365077305026028</v>
+        <v>1.331500971393425</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.848376700726975</v>
@@ -18526,7 +18526,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.376473636752</v>
+        <v>1.341907714023562</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.842363450653368</v>
@@ -18615,7 +18615,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.384801390756718</v>
+        <v>1.347201394160937</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.838042145200779</v>
@@ -18704,7 +18704,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.427789291578452</v>
+        <v>1.387053064113631</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.969312494866639</v>
@@ -18793,7 +18793,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.456099271495958</v>
+        <v>1.406211864640737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.841374463898616</v>
@@ -18882,7 +18882,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.298442176610508</v>
+        <v>1.275372638188446</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.616573203343485</v>
@@ -18971,7 +18971,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.288718814513725</v>
+        <v>1.266780588336034</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.620628907673756</v>
@@ -19060,7 +19060,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.273239062500478</v>
+        <v>1.257826174621307</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.61987507779181</v>
@@ -19149,7 +19149,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.270645883291287</v>
+        <v>1.255716296483776</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.623164058112165</v>
@@ -19238,7 +19238,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.276461312140862</v>
+        <v>1.262385178861674</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.638742939342856</v>
@@ -19327,7 +19327,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.264870171275119</v>
+        <v>1.254877076737568</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.626870753199832</v>
@@ -19416,7 +19416,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.275890811003086</v>
+        <v>1.266864498191626</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.625669818054802</v>
@@ -19505,7 +19505,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.268420023454374</v>
+        <v>1.261970967953046</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.6264658276391</v>
@@ -19594,7 +19594,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.278319623910794</v>
+        <v>1.27308282305418</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.57280590391081</v>
@@ -19683,7 +19683,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.279946944142202</v>
+        <v>1.274020368876438</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.618939027610639</v>
@@ -19772,7 +19772,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.284293120521808</v>
+        <v>1.275610338742537</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.617136309854822</v>
@@ -20058,7 +20058,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352471572665192</v>
+        <v>1.34958845599115</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.495622358190876</v>
@@ -20147,7 +20147,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.317055925333043</v>
+        <v>1.313101948611822</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.327879401551526</v>
@@ -20236,7 +20236,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.310770795196694</v>
+        <v>1.305339105724049</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.390349968989896</v>
@@ -20325,7 +20325,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.316434709420148</v>
+        <v>1.3113102989431</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.400833555751724</v>
@@ -20414,7 +20414,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.314443789533106</v>
+        <v>1.305161518936573</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.366511978521927</v>
@@ -20503,7 +20503,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.321363442148298</v>
+        <v>1.313188220751196</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.390659047208332</v>
@@ -20592,7 +20592,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.310870055705658</v>
+        <v>1.29549816342871</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.222805364524751</v>
@@ -20681,7 +20681,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.302957408050802</v>
+        <v>1.294139790748064</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.244225096815743</v>
@@ -20770,7 +20770,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.312260325334587</v>
+        <v>1.300826889543893</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.364179693982652</v>
@@ -20859,7 +20859,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.310906002492198</v>
+        <v>1.29530169202569</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.288136103698883</v>
@@ -20948,7 +20948,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.305181903650256</v>
+        <v>1.287086948978125</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.346366030220334</v>
@@ -21037,7 +21037,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.295538852500422</v>
+        <v>1.277065762187648</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.417165869100211</v>
@@ -21126,7 +21126,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.289023508688721</v>
+        <v>1.268470093035222</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.304057540318735</v>
@@ -21215,7 +21215,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.285176761543747</v>
+        <v>1.265593887452694</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.289986262770074</v>
@@ -21304,7 +21304,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.284936614925992</v>
+        <v>1.265420737078837</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.353075635368685</v>
@@ -21393,7 +21393,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.272511286101764</v>
+        <v>1.251300708358449</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.43115555907383</v>
@@ -21482,7 +21482,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.298772830326901</v>
+        <v>1.274604722814311</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.46073056238792</v>
@@ -21571,7 +21571,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.286536388400816</v>
+        <v>1.264844551300757</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.421444474927459</v>
@@ -21660,7 +21660,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.287565306671552</v>
+        <v>1.270555492511587</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.404505057934295</v>
@@ -21749,7 +21749,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.288446928508207</v>
+        <v>1.268629214308033</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.334446313145671</v>
@@ -21838,7 +21838,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.293791356162771</v>
+        <v>1.272264547845896</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.4263742717262</v>
@@ -21927,7 +21927,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.290436810450375</v>
+        <v>1.273552637031245</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.364402690849105</v>
@@ -22016,7 +22016,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.296556908819269</v>
+        <v>1.26819578831957</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.346701471726568</v>
@@ -22105,7 +22105,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.276664446031269</v>
+        <v>1.260394498475475</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.155184591230874</v>
@@ -22194,7 +22194,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289629633038525</v>
+        <v>1.275621478903728</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.220509762577058</v>
@@ -22283,7 +22283,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.287959582161418</v>
+        <v>1.277996815167946</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.230402000361216</v>
@@ -22372,7 +22372,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.294159813744328</v>
+        <v>1.282870975549209</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.265771200859034</v>
@@ -22461,7 +22461,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.31234512150329</v>
+        <v>1.29946630896269</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.946688412055924</v>
@@ -22550,7 +22550,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.306057782924491</v>
+        <v>1.296007291740182</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.316932404502224</v>
@@ -22639,7 +22639,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.302163300926917</v>
+        <v>1.296525901949753</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.135085976246626</v>
@@ -22728,7 +22728,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.328463522332155</v>
+        <v>1.324699274218269</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.110198700843562</v>
@@ -22817,7 +22817,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.308334831383481</v>
+        <v>1.303331107042988</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.194298444569384</v>
@@ -22906,7 +22906,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.326876432509236</v>
+        <v>1.323774095410183</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.175594043714112</v>
@@ -22995,7 +22995,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.328743520905197</v>
+        <v>1.323293454182803</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.140073487459857</v>
@@ -23084,7 +23084,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.335986809404456</v>
+        <v>1.329249790366462</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.146230159204618</v>
@@ -23173,7 +23173,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.339742567908393</v>
+        <v>1.331986640588877</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.248964786106776</v>
@@ -23262,7 +23262,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.357459207736022</v>
+        <v>1.34666358635343</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.215975325577968</v>
@@ -23351,7 +23351,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.375873442940127</v>
+        <v>1.364847687269494</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.991113225637356</v>
@@ -23440,7 +23440,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.387445266650797</v>
+        <v>1.371150726944612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.608373149094113</v>
@@ -23529,7 +23529,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.389771718550075</v>
+        <v>1.373838625498595</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.496492894396716</v>
@@ -23618,7 +23618,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.392130049676813</v>
+        <v>1.374127568658918</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.510094558892442</v>
@@ -23707,7 +23707,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.395801314165612</v>
+        <v>1.37749353143149</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.557314022269831</v>
@@ -23993,7 +23993,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.591506417908322</v>
+        <v>1.570265514307764</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.039327851849663</v>
@@ -24082,7 +24082,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.605933632562764</v>
+        <v>1.584927935070557</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.001569102590414</v>
@@ -24171,7 +24171,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.633935942680191</v>
+        <v>1.608779518703071</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.905564753391184</v>
@@ -24260,7 +24260,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.652173300543551</v>
+        <v>1.626203413937835</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.631917612238614</v>
@@ -24349,7 +24349,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675329734799128</v>
+        <v>1.640200025282902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.968639171424364</v>
@@ -24438,7 +24438,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.679759002160491</v>
+        <v>1.64414023552784</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.886171379547682</v>
@@ -24527,7 +24527,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.703821741692207</v>
+        <v>1.666402135510975</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.060817081103842</v>
@@ -24616,7 +24616,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.691505115155809</v>
+        <v>1.655060171978539</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.972784519775356</v>
@@ -24705,7 +24705,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.696793821911237</v>
+        <v>1.663652319888584</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.017333456071788</v>
@@ -24794,7 +24794,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.700202226340047</v>
+        <v>1.665433903104206</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.833316944531219</v>
@@ -24883,7 +24883,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.694077966283039</v>
+        <v>1.664117900500535</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.88668460924693</v>
@@ -24972,7 +24972,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.690172987483064</v>
+        <v>1.656331838296187</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.997295387126444</v>
@@ -25061,7 +25061,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.675425154181818</v>
+        <v>1.645439951279977</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.912086189110823</v>
@@ -25150,7 +25150,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686887604430606</v>
+        <v>1.660330785773884</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.738537490551046</v>
@@ -25239,7 +25239,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.692200999835688</v>
+        <v>1.666285192288138</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.947345952561056</v>
@@ -25328,7 +25328,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.684475812997433</v>
+        <v>1.657210504517516</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.063692466359128</v>
@@ -25417,7 +25417,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.686196847466415</v>
+        <v>1.649883402383728</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.790548020584766</v>
@@ -25506,7 +25506,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677048054184135</v>
+        <v>1.638475243125316</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.976202674018878</v>
@@ -25595,7 +25595,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.677424389042756</v>
+        <v>1.637967276016182</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.930407969924972</v>
@@ -25684,7 +25684,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663607550725447</v>
+        <v>1.632239089909396</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.049574398516097</v>
@@ -25773,7 +25773,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671790260318335</v>
+        <v>1.632873103154894</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.044490679938464</v>
@@ -25862,7 +25862,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.689587883599629</v>
+        <v>1.636410928632962</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.113894103687683</v>
@@ -25951,7 +25951,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690888988048525</v>
+        <v>1.640581765125429</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.038360992780178</v>
@@ -26040,7 +26040,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691703401045715</v>
+        <v>1.635266319113357</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.148447484279956</v>
@@ -26129,7 +26129,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.690511606771443</v>
+        <v>1.631349420547388</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.237622878844457</v>
@@ -26218,7 +26218,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.697496141133922</v>
+        <v>1.635917983678567</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.981771457050903</v>
@@ -26307,7 +26307,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.696349863181244</v>
+        <v>1.638543263178872</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.032795718313252</v>
@@ -26396,7 +26396,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.705080923551826</v>
+        <v>1.649484928486278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.119355547331586</v>
@@ -26485,7 +26485,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.727069226592074</v>
+        <v>1.659215550604343</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.97247822222036</v>
@@ -26574,7 +26574,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.755753742185194</v>
+        <v>1.677747185888802</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.272965233630929</v>
@@ -26663,7 +26663,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.760036383521376</v>
+        <v>1.68709587704706</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.148850209246934</v>
@@ -26752,7 +26752,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722171295418157</v>
+        <v>1.665219644622524</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.956089401973387</v>
@@ -26841,7 +26841,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.716837138287792</v>
+        <v>1.674311890866321</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.016770490969471</v>
@@ -26930,7 +26930,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706925814426</v>
+        <v>1.665546718302833</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.96038315285102</v>
@@ -27019,7 +27019,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.729547434685102</v>
+        <v>1.675929000931933</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.914455420779101</v>
@@ -27108,7 +27108,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.732241643406111</v>
+        <v>1.682957120258844</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.29053541414484</v>
@@ -27197,7 +27197,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.726696462379717</v>
+        <v>1.68031854703891</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.090095292802161</v>
@@ -27286,7 +27286,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.732603942117069</v>
+        <v>1.686160902396432</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.176633351483171</v>
@@ -27375,7 +27375,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723551409512766</v>
+        <v>1.685566686027042</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.847038331743811</v>
@@ -27464,7 +27464,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722838857807795</v>
+        <v>1.684181373000644</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.266118176433042</v>
@@ -27553,7 +27553,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.722092865459269</v>
+        <v>1.684554323510772</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.956840078934488</v>
@@ -27642,7 +27642,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.726199596078702</v>
+        <v>1.691984053900265</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.954312997849522</v>
